--- a/DCgenes_published.xlsx
+++ b/DCgenes_published.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/semple/Documents/MeisterLab/dSMF/DCgenes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/semple/Documents/MeisterLab/otherPeopleProjects/Moushumi/SMC_RNAseq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53059AB5-404B-3A4F-BA35-0376C81048BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6154875B-86EC-E346-9867-1855EA8A6E69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35180" yWindow="2240" windowWidth="22200" windowHeight="15500" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35180" yWindow="2240" windowWidth="22200" windowHeight="15500" tabRatio="987" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DCC" sheetId="2" r:id="rId1"/>
+    <sheet name="DC" sheetId="2" r:id="rId1"/>
     <sheet name="Xescapers" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -1327,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FBA4AF-85B0-E340-AA05-69635A700E38}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2098,7 +2098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7534490-E157-A647-B302-2F3D4A4D7FA6}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
